--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">**Spécialité : Science des données appliquées à la biologie de la santé**</t>
   </si>
   <si>
-    <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://mivegec-net-03.quickconnect.to/d/s/oCJlcA1laQ9Eodm5ebTeqJlz4XzD84eB/KeJjWlnwxpSJN96L1kMIhXIIdBjTeStg-4ruACso5bgk)</t>
+    <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://github.com/ptaconet/phd_thesis/raw/main/_book/these_taconet.pdf)</t>
   </si>
   <si>
     <t xml:space="preserve">Jury : Catherine Linard (rapporteuse), Ibrahima Dia (rapporteur), Florence Fournet (examinatrice), Jean Gaudart (examinateur), Emmanuel Roux (examinateur), Nicolas Moiroux (directeur)</t>
@@ -195,6 +195,12 @@
     <t xml:space="preserve">Juillet 2022</t>
   </si>
   <si>
+    <t xml:space="preserve">**Sciences des données spatio-temporelles pour l’écologie de la santé et l’épidémiologie**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En projet : développement d’un outil de surveillance et d’alerte précoce pour le risque de transmission du paludisme en milieu rural ouest-africain à fine échelle spatio-temporelle </t>
+  </si>
+  <si>
     <t xml:space="preserve">Doctorant</t>
   </si>
   <si>
@@ -217,6 +223,9 @@
   </si>
   <si>
     <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définition et implémentation d’indicateurs pour l’Observatoire de la biodiversité des Terres australes françaises</t>
   </si>
   <si>
     <t xml:space="preserve">org</t>
@@ -550,8 +559,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -601,7 +610,7 @@
       <c r="AMI1" s="4"/>
       <c r="AMJ1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="61.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -666,8 +675,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://mivegec-net-03.quickconnect.to/d/s/oCJlcA1laQ9Eodm5ebTeqJlz4XzD84eB/KeJjWlnwxpSJN96L1kMIhXIIdBjTeStg-4ruACso5bgk)"/>
-    <hyperlink ref="G3" r:id="rId2" display="https://drive.google.com/file/d/0BxhPEaAj4ySea00zNkxzbmVNWFU/view?usp=sharing&amp;resourcekey=0-KRTjAQMgH3dWxgr3mXtUFg"/>
+    <hyperlink ref="G2" r:id="rId1" display="Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://github.com/ptaconet/phd_thesis/raw/main/_book/these_taconet.pdf)"/>
+    <hyperlink ref="G3" r:id="rId2" display="Stage n°1 // Communauté d’agglomération du Havre : &quot;Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité&quot; [[rapport PDF]](https://drive.google.com/file/d/0BxhPEaAj4ySea00zNkxzbmVNWFU/view?usp=sharing&amp;resourcekey=0-KRTjAQMgH3dWxgr3mXtUFg)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -852,8 +861,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -923,10 +932,10 @@
         <v>29</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -938,22 +947,22 @@
     </row>
     <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>31</v>
@@ -992,12 +1001,12 @@
         <v>41</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>44</v>
@@ -1006,7 +1015,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>37</v>
@@ -1021,7 +1030,7 @@
         <v>49</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>51</v>
@@ -1065,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -1094,128 +1103,128 @@
     </row>
     <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="169.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1254,16 +1263,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>3</v>
@@ -1272,41 +1281,41 @@
         <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2021</v>
@@ -1320,16 +1329,16 @@
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2016</v>
@@ -1338,21 +1347,21 @@
         <v>2020</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2020</v>
@@ -1401,27 +1410,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2022</v>
@@ -1433,10 +1442,10 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2020</v>
@@ -1448,10 +1457,10 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2017</v>
@@ -1463,10 +1472,10 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2016</v>
@@ -1478,10 +1487,10 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2014</v>
@@ -1496,10 +1505,10 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2014</v>
@@ -1511,10 +1520,10 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2014</v>
@@ -1526,10 +1535,10 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2010</v>
@@ -1544,10 +1553,10 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2010</v>
@@ -1562,10 +1571,10 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2010</v>
@@ -1577,10 +1586,10 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2009</v>
@@ -1620,27 +1629,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="130">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -76,7 +76,35 @@
     <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://github.com/ptaconet/phd_thesis/raw/main/_book/these_taconet.pdf)</t>
   </si>
   <si>
-    <t xml:space="preserve">Jury : Catherine Linard (rapporteuse), Ibrahima Dia (rapporteur), Florence Fournet (examinatrice), Jean Gaudart (examinateur), Emmanuel Roux (examinateur), Nicolas Moiroux (directeur)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Jury : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Nicolas Moiroux (directeur de thèse), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Catherine Linard (rapportrice), Ibrahima Dia (rapporteur), Florence Fournet (examinatrice), Jean Gaudart (examinateur), Emmanuel Roux (examinateur), Annelise Tran (invitée), Morgan Mangeas (invité)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ingénieur</t>
@@ -216,7 +244,10 @@
     <t xml:space="preserve">**Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain**</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement de « pipelines » de valorisation des données selon les principes FAIR (catalogues de données) (R et SQL)</t>
+    <t xml:space="preserve">Développement de chaines de traitement d’extraction-transformation-chargement des données (R et SQL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement de chaines de traitement de valorisation scientifiques des données selon les principes FAIR (catalogues de données) (R et SQL)</t>
   </si>
   <si>
     <t xml:space="preserve">Géomaticien (VSC)</t>
@@ -429,7 +460,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="\$#,##0_);[RED]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -451,6 +482,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -536,7 +573,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -559,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -610,7 +647,7 @@
       <c r="AMI1" s="4"/>
       <c r="AMJ1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -861,8 +898,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -998,15 +1035,15 @@
         <v>40</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>44</v>
@@ -1015,7 +1052,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>37</v>
@@ -1030,7 +1067,7 @@
         <v>49</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>51</v>
@@ -1074,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -1103,128 +1140,128 @@
     </row>
     <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>79</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="169.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1263,16 +1300,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>3</v>
@@ -1281,41 +1318,41 @@
         <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2021</v>
@@ -1329,16 +1366,16 @@
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2016</v>
@@ -1347,21 +1384,21 @@
         <v>2020</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2020</v>
@@ -1410,27 +1447,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2022</v>
@@ -1442,10 +1479,10 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2020</v>
@@ -1457,10 +1494,10 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2017</v>
@@ -1472,10 +1509,10 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2016</v>
@@ -1487,10 +1524,10 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2014</v>
@@ -1505,10 +1542,10 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2014</v>
@@ -1520,10 +1557,10 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>119</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2014</v>
@@ -1535,10 +1572,10 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2010</v>
@@ -1553,10 +1590,10 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2010</v>
@@ -1571,10 +1608,10 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2010</v>
@@ -1586,10 +1623,10 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2009</v>
@@ -1629,27 +1666,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -8,13 +8,18 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="education" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="employment3" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="employment2" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="employment" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="grants" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="awards" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="data-validation" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="education_2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="employment_cv_ird_ir" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="employment_cv_ird_postdoc" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="employment_cv_ird_postdoc_2024" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="education" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="education_ird_postdoc" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="employment3" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="employment2" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="employment" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="grants" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="awards" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="data-validation" sheetId="12" state="visible" r:id="rId13"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -70,41 +75,13 @@
     <t xml:space="preserve">2022</t>
   </si>
   <si>
-    <t xml:space="preserve">**Spécialité : Science des données appliquées à la biologie de la santé**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://github.com/ptaconet/phd_thesis/raw/main/_book/these_taconet.pdf)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Jury : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Nicolas Moiroux (directeur de thèse), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Catherine Linard (rapportrice), Ibrahima Dia (rapporteur), Florence Fournet (examinatrice), Jean Gaudart (examinateur), Emmanuel Roux (examinateur), Annelise Tran (invitée), Morgan Mangeas (invité)</t>
-    </r>
+    <t xml:space="preserve">**Spécialité : Science des données appliquées à l’écologie de la santé**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://hal.science/tel-03841709v2) [[GitHub]](https://github.com/ptaconet/phd_thesis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jury : Nicolas Moiroux (directeur de thèse), Catherine Linard (rapportrice), Ibrahima Dia (rapporteur), Florence Fournet (examinatrice), Jean Gaudart (examinateur), Emmanuel Roux (examinateur), Annelise Tran (invitée), Morgan Mangeas (invité)</t>
   </si>
   <si>
     <t xml:space="preserve">Ingénieur</t>
@@ -119,43 +96,58 @@
     <t xml:space="preserve">**Spécialité : Aménagement et ingénierie de l’environnement**</t>
   </si>
   <si>
-    <t xml:space="preserve">Stage n°1 // Communauté d’agglomération du Havre : "Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité" [[rapport PDF]](https://drive.google.com/file/d/0BxhPEaAj4ySea00zNkxzbmVNWFU/view?usp=sharing&amp;resourcekey=0-KRTjAQMgH3dWxgr3mXtUFg)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stage n°2 // Agence spatiale européenne : "Management of projects based on the use of geospatial information" [[rapport PDF]](https://drive.google.com/file/d/1t5slhl_AuJha8jqdZrA2-Fn4mDYBzvg7/view?usp=sharing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deux semestres d’échanges universitaires : Université de Bologne (Italie) et Ecole Polytechnique Fédérale de Lausanne (Suisse)</t>
+    <t xml:space="preserve">Stage fin d’études // Communauté d’agglomération du Havre : "Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité" [[PDF]](https://doi.org/10.5281/zenodo.10969313)</t>
   </si>
   <si>
     <t xml:space="preserve">description_4</t>
   </si>
   <si>
-    <t xml:space="preserve">Doctorant puis Post-doctorant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRD, UMR MIVEGEC (4 ans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobo-Dioulasso (BF) (2 ans) &lt;br&gt; puis Montpellier (2 ans)</t>
+    <t xml:space="preserve">Post-doctorant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MIVEGEC (8 mois)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juillet 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">présent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Sciences des données spatio-temporelles pour l’écologie de la santé et l’épidémiologie**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement d’un outil de surveillance et d’alerte précoce du paludisme en milieu rural ouest-africain à fine échelle spatio-temporelle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion des bases de données de deux projets de recherche en lien avec les équipes terrains, rédaction de plans de gestion des données et de ‘data papers’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyses statistiques, soutien pour la gestion des données pour divers projets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctorant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MIVEGEC (3,5 ans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobo-Dioulasso (BF) (2 ans) &lt;br&gt; puis Montpellier (1,5 ans)</t>
   </si>
   <si>
     <t xml:space="preserve">2018</t>
   </si>
   <si>
-    <t xml:space="preserve">présent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Sciences des données appliquées à l’écologie de la santé et l’épidémiologie**</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Génération, extraction, harmonisation de données hétérogènes spatio-temporelles et multisource (données entomologiques, paysagères, météorologiques, micro-climatiques, enquêtes ménages, etc.)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modélisation explicative et prédictive de plusieurs indicateurs entomologiques du risque de transmission du paludisme à partir de ces données</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En projet : développement d’un système d’alerte précoce multi-indicateur du risque de transmission du paludisme en milieu rural ouest-africain à fine échelle spatio-temporelle</t>
+    <t xml:space="preserve">Juin 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génération, extraction, harmonisation de données hétérogènes spatio-temporelles et multisources (données entomologiques, paysagères, météorologiques, micro-climatiques, enquêtes ménages, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisation explicative et prédictive de différents indicateurs entomologiques du risque de transmission du paludisme à partir de ces données</t>
   </si>
   <si>
     <t xml:space="preserve">Ingénieur d’étude informaticien</t>
@@ -180,13 +172,13 @@
     <t xml:space="preserve">Conception d’un modèle d’entrepôt de données spatialisées (PostgreSQL + PostGIS) permettant d’intégrer les jeux de données et métadonnées</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement de « pipelines » d’extraction-transformation-chargement des données dans l’entrepot (R et SQL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Développement de « pipelines » de valorisation des données selon les principes FAIR (R et SQL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VSC Géomaticien</t>
+    <t xml:space="preserve">Développement de chaines de traitement d’extraction-transformation-chargement des données dans l’entrepôt (R et SQL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement de chaines de traitement de valorisation des données de l’entrepôt selon les principes FAIR (catalogues de données) (R et SQL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Géomaticien (VSC)</t>
   </si>
   <si>
     <t xml:space="preserve">Terres Australes et Antarctiques Françaises (2 ans)</t>
@@ -195,7 +187,7 @@
     <t xml:space="preserve">Saint-Pierre de La Réunion</t>
   </si>
   <si>
-    <t xml:space="preserve">(2 ans) &lt;br&gt; 2013</t>
+    <t xml:space="preserve">2013</t>
   </si>
   <si>
     <t xml:space="preserve">**Conception et développement de la base de données géoréférencée de la Réserve
@@ -208,52 +200,210 @@
     <t xml:space="preserve">Développement d’interfaces de saisie, gestion et visualisation des données</t>
   </si>
   <si>
+    <t xml:space="preserve">Développement d’interfaces de saisie, gestion et visualisation des données (SQL, PHP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Post-doc position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MIVEGEC (9 months)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Geodata science for mosquito-borne diseases ecology and epidemiology**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of an early warning system for malaria in rural West Africa at a fine spatial-temporal scale (based on satellite data and machine learning), Data management for field research projects in West-africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD student</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MIVEGEC (3,5 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobo-Dioulasso (BF) (2 years) &lt;br&gt; and Montpellier (1,5 year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Spatio-temporal data mining to study the risk of malaria residual transmission at a landscape scale in rural West Africa**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanatory and predictive modelling of various spatio-temporal entomological indicators of malaria transmission risk (presence, abundance, physiological and behavioural resistance) using multisource and multiscale data and machine-learning models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer science engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MARBEC (3 years)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Global Tuna Atlas project : Implementation of spatio-temporal data warehouses for tuna fisheries and associated FAIR services**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database conception and management, development of complex R workflows (extraction-transformation-load) and R packages, data description and cataloguing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GIS engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature reserve of the French Southern Territories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Conception and development of the spatial-temporal database of the French Southern Territories nature reserve**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MIVEGEC (10 mois)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mai 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janvier 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Science des données pour l’ANR DIV-YOO - DIVersitY of mOsquitOes in West-Africa**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction de plans de gestion des données, constitution d’une base de données historique de diversité des moustiques en Afrique de l’Ouest, modélisation de distribution des espèces de moustiques en Afrique de l’Ouest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suivi de conjoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foyer familial (7 mois)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifou (Nouvelle Calédonie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Suivi de conjoint**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suivi de conjoint au dispensaire de Wé (ile de Lifou, Nouvelle Calédonie)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MIVEGEC (1 an)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rédaction de plans de gestion des données et de ‘data papers’, développement et gestion des bases de données de deux projets de recherche en lien avec les équipes terrains (Burkina Faso et Côte d’Ivoire), soutien pour la gestion des données et les analyses statistiques pour divers projets, finalisation de la valorisation des résultats de thèse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisation statistique explicative, prédictive et descriptive de divers indicateurs entomologiques spatio-temporels du risque de transmission du paludisme (présence, abondance, résistance physiologique et comportementale des moustiques) à l'aide de données hétérogènes, multi-sources et multi-échelles et de modèles d'apprentissage automatique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Projet d’atlas thonier mondial : Mise en œuvre d’entrepôts de données spatio-temporalisées sur
+les pêcheries thonières et services FAIR associés**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement et gestion de bases de données spatio-temporelles, développement de chaînes de traitements complexes dans le langage R (extraction-transformation-chargement-publication de données), développement de librairies R, description et catalogage de données.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Géomaticien (Volontaire de Service Civique)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Développement et gestion de la base de données géoréférencée de la Réserve
+naturelle nationale des Terres australes françaises**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement et gestion de bases de données spatio-temporelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://hal.science/tel-03841709v2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage n°1 // Communauté d’agglomération du Havre : "Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité" [[rapport PDF]](https://drive.google.com/file/d/0BxhPEaAj4ySea00zNkxzbmVNWFU/view?usp=sharing&amp;resourcekey=0-KRTjAQMgH3dWxgr3mXtUFg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stage n°2 // Agence spatiale européenne : "Management of projects based on the use of geospatial information" [[rapport PDF]](https://drive.google.com/file/d/1t5slhl_AuJha8jqdZrA2-Fn4mDYBzvg7/view?usp=sharing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deux semestres d’échanges universitaires : Université de Bologne (Italie) et Ecole Polytechnique Fédérale de Lausanne (Suisse)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Montpellier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Geodata science applied to mosquito-borne diseases**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis title : *« Spatio-temporal data mining to study the risk of malaria residual transmission at a landscape scale in rural West Africa »* [[PDF]](https://hal.science/tel-03841709v2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jury : Nicolas Moiroux, Catherine Linard, Ibrahima Dia, Florence Fournet, Jean Gaudart, Emmanuel Roux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Technology of Compiègne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Environmental engineering and Planning**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Including one semester of study at Federal Polytechnic School of Lausanne (EPFL) – Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doctorant puis Post-doctorant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRD, UMR MIVEGEC (4 ans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bobo-Dioulasso (BF) (2 ans) &lt;br&gt; puis Montpellier (2 ans)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Sciences des données appliquées à l’écologie de la santé et l’épidémiologie**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Génération, extraction, harmonisation de données hétérogènes spatio-temporelles et multisource (données entomologiques, paysagères, météorologiques, micro-climatiques, enquêtes ménages, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modélisation explicative et prédictive de plusieurs indicateurs entomologiques du risque de transmission du paludisme à partir de ces données</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En projet : développement d’un système d’alerte précoce multi-indicateur du risque de transmission du paludisme en milieu rural ouest-africain à fine échelle spatio-temporelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement de « pipelines » d’extraction-transformation-chargement des données dans l’entrepot (R et SQL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Développement de « pipelines » de valorisation des données selon les principes FAIR (R et SQL)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSC Géomaticien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2 ans) &lt;br&gt; 2013</t>
+  </si>
+  <si>
     <t xml:space="preserve">Définition et implémentation d’indicateurs et de tableaux de bord pour l’Observatoire régional de la biodiversité des Terres australes françaises et les instances de gestion de la réserve</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement d’interfaces de saisie, gestion et visualisation des données (SQL, PHP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Post-doctorant</t>
-  </si>
-  <si>
     <t xml:space="preserve">IRD, UMR MIVEGEC (2 mois)</t>
   </si>
   <si>
-    <t xml:space="preserve">Juillet 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Sciences des données spatio-temporelles pour l’écologie de la santé et l’épidémiologie**</t>
-  </si>
-  <si>
     <t xml:space="preserve">En projet : développement d’un outil de surveillance et d’alerte précoce pour le risque de transmission du paludisme en milieu rural ouest-africain à fine échelle spatio-temporelle </t>
   </si>
   <si>
-    <t xml:space="preserve">Doctorant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRD, UMR MIVEGEC (3,5 ans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobo-Dioulasso (BF) (2 ans) &lt;br&gt; puis Montpellier (1,5 ans)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juin 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">**Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain**</t>
-  </si>
-  <si>
     <t xml:space="preserve">Développement de chaines de traitement d’extraction-transformation-chargement des données (R et SQL)</t>
   </si>
   <si>
     <t xml:space="preserve">Développement de chaines de traitement de valorisation scientifiques des données selon les principes FAIR (catalogues de données) (R et SQL)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Géomaticien (VSC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
   </si>
   <si>
     <t xml:space="preserve">Définition et implémentation d’indicateurs pour l’Observatoire de la biodiversité des Terres australes françaises</t>
@@ -455,12 +605,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="\$#,##0_);[RED]&quot;($&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="General"/>
+    <numFmt numFmtId="167" formatCode="\$#,##0_);[RED]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -482,6 +633,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -540,7 +698,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -565,6 +723,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -573,43 +739,49 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="38.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -647,7 +819,7 @@
       <c r="AMI1" s="4"/>
       <c r="AMJ1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="73.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="86.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
@@ -672,12 +844,12 @@
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>17</v>
       </c>
@@ -696,28 +868,443 @@
       <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="0" t="n">
+      <c r="I3" s="1"/>
+      <c r="J3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://github.com/ptaconet/phd_thesis/raw/main/_book/these_taconet.pdf)"/>
-    <hyperlink ref="G3" r:id="rId2" display="Stage n°1 // Communauté d’agglomération du Havre : &quot;Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité&quot; [[rapport PDF]](https://drive.google.com/file/d/0BxhPEaAj4ySea00zNkxzbmVNWFU/view?usp=sharing&amp;resourcekey=0-KRTjAQMgH3dWxgr3mXtUFg)"/>
+    <hyperlink ref="G3" r:id="rId1" display="Stage fin d’études // Communauté d’agglomération du Havre : &quot;Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité&quot; [[PDF]](https://doi.org/10.5281/zenodo.10969313)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="55.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2021</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <v>225000</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A5" type="list">
+      <formula1>'data-validation'!$A$2:$A$5</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.33"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E2" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E3" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>2016</v>
+      </c>
+      <c r="E5" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E6" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E7" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E8" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E9" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E10" s="9" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E11" s="9" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E12" s="9" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>164</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -726,47 +1313,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.61"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="8" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -779,111 +1365,139 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>33</v>
+      <c r="J2" s="5"/>
+      <c r="K2" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="G3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="B4" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="C4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="G4" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="H4" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="I4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="J4" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="B5" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"Page &amp;P</oddFooter>
@@ -892,47 +1506,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="10.61"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="6" t="s">
+    <row r="1" s="8" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
@@ -945,138 +1558,120 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>54</v>
+      <c r="D2" s="8" t="n">
+        <v>2022</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="9" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="49.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
+        <v>64</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>63</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"Page &amp;P</oddFooter>
@@ -1085,7 +1680,845 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="8" customFormat="true" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="6" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="AMJ2" s="0"/>
+    </row>
+    <row r="3" s="8" customFormat="true" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="38.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMH1" s="4"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="73.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="168.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="Stage n°1 // Communauté d’agglomération du Havre : &quot;Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité&quot; [[rapport PDF]](https://drive.google.com/file/d/0BxhPEaAj4ySea00zNkxzbmVNWFU/view?usp=sharing&amp;resourcekey=0-KRTjAQMgH3dWxgr3mXtUFg)"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="38.76"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="2" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMH1" s="4"/>
+      <c r="AMI1" s="4"/>
+      <c r="AMJ1" s="4"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="18.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="8" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="9" t="b">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -1095,15 +2528,13 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="1" width="43.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1111,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -1140,559 +2571,134 @@
     </row>
     <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="169.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="55.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="10.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>2021</v>
-      </c>
-      <c r="F3" s="0" t="n">
-        <v>2023</v>
-      </c>
-      <c r="G3" s="7" t="n">
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>2022</v>
-      </c>
-      <c r="G5" s="7" t="n">
-        <v>225000</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A3:A5" type="list">
-      <formula1>'data-validation'!$A$2:$A$5</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="10.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2022</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2020</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>2017</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>2018</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>2014</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>2010</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>2009</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:A5"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.61"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="education_2" sheetId="1" state="visible" r:id="rId2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="191">
   <si>
     <t xml:space="preserve">title</t>
   </si>
@@ -66,7 +66,7 @@
     <t xml:space="preserve">Doctorat</t>
   </si>
   <si>
-    <t xml:space="preserve">Université de Montpellier</t>
+    <t xml:space="preserve">Université de Montpellier, Ecole doctorale GAIA</t>
   </si>
   <si>
     <t xml:space="preserve">Montpellier</t>
@@ -75,7 +75,7 @@
     <t xml:space="preserve">2022</t>
   </si>
   <si>
-    <t xml:space="preserve">**Spécialité : Science des données appliquées à l’écologie de la santé**</t>
+    <t xml:space="preserve">**Spécialité : Écologie et Biodiversité**</t>
   </si>
   <si>
     <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://hal.science/tel-03841709v2) [[GitHub]](https://github.com/ptaconet/phd_thesis)</t>
@@ -93,7 +93,7 @@
     <t xml:space="preserve">Compiègne</t>
   </si>
   <si>
-    <t xml:space="preserve">**Spécialité : Aménagement et ingénierie de l’environnement**</t>
+    <t xml:space="preserve">**Spécialité : Sciences de l’environnement**</t>
   </si>
   <si>
     <t xml:space="preserve">Stage fin d’études // Communauté d’agglomération du Havre : "Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité" [[PDF]](https://doi.org/10.5281/zenodo.10969313)</t>
@@ -299,10 +299,13 @@
     <t xml:space="preserve">Rédaction de plans de gestion des données et de ‘data papers’, développement et gestion des bases de données de deux projets de recherche en lien avec les équipes terrains (Burkina Faso et Côte d’Ivoire), soutien pour la gestion des données et les analyses statistiques pour divers projets, finalisation de la valorisation des résultats de thèse</t>
   </si>
   <si>
+    <t xml:space="preserve">**Spécialité Écologie et Biodiversité – Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain**</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modélisation statistique explicative, prédictive et descriptive de divers indicateurs entomologiques spatio-temporels du risque de transmission du paludisme (présence, abondance, résistance physiologique et comportementale des moustiques) à l'aide de données hétérogènes, multi-sources et multi-échelles et de modèles d'apprentissage automatique.</t>
   </si>
   <si>
-    <t xml:space="preserve">**Projet d’atlas thonier mondial : Mise en œuvre d’entrepôts de données spatio-temporalisées sur
+    <t xml:space="preserve">**Projet Global Tuna Atlas : Mise en œuvre d’entrepôts de données spatio-temporalisées sur
 les pêcheries thonières et services FAIR associés**</t>
   </si>
   <si>
@@ -319,7 +322,16 @@
     <t xml:space="preserve">Développement et gestion de bases de données spatio-temporelles</t>
   </si>
   <si>
+    <t xml:space="preserve">Université de Montpellier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Spécialité : Science des données appliquées à l’écologie de la santé**</t>
+  </si>
+  <si>
     <t xml:space="preserve">Titre de la thèse: « Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain »[[PDF]](https://hal.science/tel-03841709v2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Spécialité : Aménagement et ingénierie de l’environnement**</t>
   </si>
   <si>
     <t xml:space="preserve">Stage n°1 // Communauté d’agglomération du Havre : "Etude sur le risque de submersion marine au Havre : approfondissement des connaissances aléas-enjeux-vulnérabilité" [[rapport PDF]](https://drive.google.com/file/d/0BxhPEaAj4ySea00zNkxzbmVNWFU/view?usp=sharing&amp;resourcekey=0-KRTjAQMgH3dWxgr3mXtUFg)</t>
@@ -611,7 +623,7 @@
     <numFmt numFmtId="166" formatCode="General"/>
     <numFmt numFmtId="167" formatCode="\$#,##0_);[RED]&quot;($&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -640,12 +652,6 @@
       <name val="Calibri"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -698,7 +704,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -723,7 +729,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -735,19 +741,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -770,11 +768,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -902,7 +900,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
@@ -914,16 +912,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>3</v>
@@ -932,41 +930,41 @@
         <v>4</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>2021</v>
@@ -974,22 +972,22 @@
       <c r="F3" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="9" t="n">
         <v>225000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>2016</v>
@@ -998,21 +996,21 @@
         <v>2020</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="34" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>2020</v>
@@ -1020,7 +1018,7 @@
       <c r="F5" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="9" t="n">
         <v>225000</v>
       </c>
     </row>
@@ -1052,7 +1050,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.33"/>
@@ -1060,87 +1058,87 @@
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="E2" s="9" t="b">
+      <c r="E2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="E3" s="9" t="b">
+      <c r="E3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="E4" s="9" t="b">
+      <c r="E4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="E5" s="9" t="b">
+      <c r="E5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2014</v>
@@ -1148,47 +1146,47 @@
       <c r="D6" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="E6" s="9" t="b">
+      <c r="E6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="E7" s="9" t="b">
+      <c r="E7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="E8" s="9" t="b">
+      <c r="E8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2010</v>
@@ -1196,17 +1194,17 @@
       <c r="D9" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="E9" s="9" t="b">
+      <c r="E9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>2010</v>
@@ -1214,37 +1212,37 @@
       <c r="D10" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="E10" s="9" t="b">
+      <c r="E10" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="E11" s="9" t="b">
+      <c r="E11" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="E12" s="9" t="b">
+      <c r="E12" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1271,34 +1269,34 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
-        <v>185</v>
+      <c r="A1" s="10" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1323,7 +1321,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -1401,7 +1399,7 @@
         <v>30</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="9" t="b">
+      <c r="K2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1516,7 +1514,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -1590,7 +1588,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="9" t="b">
+      <c r="K2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -1686,11 +1684,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -1758,7 +1756,7 @@
       <c r="F2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="5" t="s">
         <v>78</v>
       </c>
       <c r="H2" s="5"/>
@@ -1840,10 +1838,10 @@
         <v>13</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" s="5"/>
       <c r="J5" s="5"/>
@@ -1865,10 +1863,10 @@
         <v>34</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1876,7 +1874,7 @@
     </row>
     <row r="7" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>49</v>
@@ -1891,10 +1889,10 @@
         <v>42</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1917,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -1969,7 +1967,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>12</v>
@@ -1981,15 +1979,15 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="9" t="b">
+      <c r="J2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2011,18 +2009,18 @@
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="9" t="b">
+        <v>101</v>
+      </c>
+      <c r="J3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2052,7 +2050,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2099,10 +2097,10 @@
     </row>
     <row r="2" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>12</v>
@@ -2111,25 +2109,25 @@
         <v>13</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J2" s="9" t="b">
+        <v>106</v>
+      </c>
+      <c r="J2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>19</v>
@@ -2138,13 +2136,13 @@
         <v>2012</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I3" s="1"/>
-      <c r="J3" s="9" t="b">
+      <c r="J3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2171,7 +2169,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2222,13 +2220,13 @@
     </row>
     <row r="2" customFormat="false" ht="49.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
@@ -2237,16 +2235,16 @@
         <v>26</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,15 +2273,15 @@
         <v>45</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>49</v>
@@ -2292,7 +2290,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>42</v>
@@ -2307,7 +2305,7 @@
         <v>54</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>55</v>
@@ -2336,7 +2334,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2390,7 +2388,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>12</v>
@@ -2405,12 +2403,12 @@
         <v>27</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="9" t="b">
+      <c r="K2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -2435,10 +2433,10 @@
         <v>36</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J3" s="5"/>
     </row>
@@ -2468,10 +2466,10 @@
         <v>45</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2500,7 +2498,7 @@
         <v>54</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K5" s="0" t="s">
         <v>55</v>
@@ -2528,7 +2526,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.65625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.5"/>
@@ -2542,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>1</v>
@@ -2571,128 +2569,128 @@
     </row>
     <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="169.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -305,11 +305,11 @@
     <t xml:space="preserve">Modélisation statistique explicative, prédictive et descriptive de divers indicateurs entomologiques spatio-temporels du risque de transmission du paludisme (présence, abondance, résistance physiologique et comportementale des moustiques) à l'aide de données hétérogènes, multi-sources et multi-échelles et de modèles d'apprentissage automatique.</t>
   </si>
   <si>
-    <t xml:space="preserve">**Projet Global Tuna Atlas : Mise en œuvre d’entrepôts de données spatio-temporalisées sur
+    <t xml:space="preserve">**Projet Global Tuna Atlas : Génération de jeux de données globaux spatio-temporalisées sur
 les pêcheries thonières et services FAIR associés**</t>
   </si>
   <si>
-    <t xml:space="preserve">Développement et gestion de bases de données spatio-temporelles, développement de chaînes de traitements complexes dans le langage R (extraction-transformation-chargement-publication de données), développement de librairies R, description et catalogage de données.</t>
+    <t xml:space="preserve">Création de jeux de données spatio-temporels complexes à partir de données hétérogènes, développement de chaînes de traitements complexes dans le langage R (extraction-transformation-chargement-publication de données), développement de librairies R, description et catalogage de données selon les principes FAIR.</t>
   </si>
   <si>
     <t xml:space="preserve">Géomaticien (Volontaire de Service Civique)</t>
@@ -772,7 +772,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -900,7 +900,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
@@ -1050,7 +1050,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.33"/>
@@ -1269,7 +1269,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
   </cols>
@@ -1321,12 +1321,12 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
@@ -1514,12 +1514,12 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
@@ -1684,16 +1684,16 @@
   </sheetPr>
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
@@ -1917,7 +1917,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2050,7 +2050,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2169,12 +2169,12 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
@@ -2334,12 +2334,12 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="65.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="67.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="43.32"/>
@@ -2526,7 +2526,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.5"/>

--- a/cv-data.xlsx
+++ b/cv-data.xlsx
@@ -302,7 +302,7 @@
     <t xml:space="preserve">**Spécialité Écologie et Biodiversité – Fouille de données spatio-temporelles pour l’étude du risque de transmission résiduelle du paludisme en milieu rural ouest-africain**</t>
   </si>
   <si>
-    <t xml:space="preserve">Modélisation statistique explicative, prédictive et descriptive de divers indicateurs entomologiques spatio-temporels du risque de transmission du paludisme (présence, abondance, résistance physiologique et comportementale des moustiques) à l'aide de données hétérogènes, multi-sources et multi-échelles et de modèles d'apprentissage automatique.</t>
+    <t xml:space="preserve">Modélisation statistique exploratoire, explicative et prédictive de divers indicateurs entomologiques spatio-temporels du risque de transmission du paludisme (présence, abondance, résistance physiologique et comportementale des moustiques) à l'aide de données hétérogènes, multi-sources et multi-échelles et de modèles d'apprentissage automatique.</t>
   </si>
   <si>
     <t xml:space="preserve">**Projet Global Tuna Atlas : Génération de jeux de données globaux spatio-temporalisées sur
@@ -772,7 +772,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -900,7 +900,7 @@
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
@@ -1050,7 +1050,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="60.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.33"/>
@@ -1269,7 +1269,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.83"/>
   </cols>
@@ -1321,7 +1321,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -1514,7 +1514,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -1685,10 +1685,10 @@
   <dimension ref="A1:AMJ7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -1917,7 +1917,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2050,7 +2050,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2169,7 +2169,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2334,7 +2334,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="35.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.4"/>
@@ -2526,7 +2526,7 @@
       <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.5"/>
